--- a/Employee_Reports35/Sandy De Vera Apigo Q0090.xlsx
+++ b/Employee_Reports35/Sandy De Vera Apigo Q0090.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -631,11 +631,11 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>-149</v>
+        <v>-150</v>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -668,11 +668,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>-98</v>
+        <v>-99</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -705,11 +705,11 @@
         </is>
       </c>
       <c r="H6" s="5" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="5" t="inlineStr">

--- a/Employee_Reports35/Sandy De Vera Apigo Q0090.xlsx
+++ b/Employee_Reports35/Sandy De Vera Apigo Q0090.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -631,11 +631,11 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>-150</v>
+        <v>-151</v>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -668,11 +668,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -705,11 +705,11 @@
         </is>
       </c>
       <c r="H6" s="5" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="5" t="inlineStr">
